--- a/src/test/resources/ProjectRMG.xlsx
+++ b/src/test/resources/ProjectRMG.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srjen\OneDrive\Documents\Java New\SDET-49RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA65C3B8-CA3E-4D6E-B008-49DDD0E6C250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02312CF5-05DB-4A4B-A3A8-2ECFD7FF40E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="19">
   <si>
     <t>createdBy</t>
   </si>
@@ -77,6 +78,12 @@
   </si>
   <si>
     <t>AutomationEngineer</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -493,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9246AEC6-2B3B-40D8-96D9-77BDB2143621}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -906,4 +913,819 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4557A-B455-4B82-A373-4FD18598D676}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>